--- a/3week/3/3/Графики.xlsx
+++ b/3week/3/3/Графики.xlsx
@@ -6,33 +6,19 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист 1 - Число коллизий в завис" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист 1" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si/>
   <si>
-    <t>Число коллизий в зависимости от размера N</t>
+    <t>N</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>N</t>
-    </r>
-  </si>
-  <si>
-    <t>Число коллизий для строк</t>
-  </si>
-  <si>
-    <t>Число коллизий для int</t>
+    <t>Число коллизий</t>
   </si>
 </sst>
 </file>
@@ -77,7 +63,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,13 +72,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="18"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -107,46 +87,46 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="16"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="17"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="16"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="16"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="17"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="16"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="16"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="16"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="16"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="16"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="16"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="16"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -156,41 +136,20 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" indent="10" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -214,12 +173,9 @@
       <rgbColor rgb="ffb8b8b8"/>
       <rgbColor rgb="ff51a7f9"/>
       <rgbColor rgb="ff53abff"/>
-      <rgbColor rgb="ff6fbf40"/>
-      <rgbColor rgb="ff8df252"/>
-      <rgbColor rgb="ffbfbfbf"/>
+      <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -251,11 +207,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Лист 1 - Число коллизий в завис'!$A$3</c:f>
+              <c:f>'Лист 1'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Число коллизий для строк</c:v>
+                  <c:v>Число коллизий</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -347,9 +303,9 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Лист 1 - Число коллизий в завис'!$B$2:$L$2</c:f>
+              <c:f>'Лист 1'!$A$2:$A$12</c:f>
               <c:numCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100000.000000</c:v>
                 </c:pt>
@@ -379,233 +335,44 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1000000.000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1100000.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Лист 1 - Число коллизий в завис'!$B$3:$L$3</c:f>
+              <c:f>'Лист 1'!$B$2:$B$12</c:f>
               <c:numCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>1.000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4.000000</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.000000</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.000000</c:v>
+                  <c:v>6.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.000000</c:v>
+                  <c:v>16.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.000000</c:v>
+                  <c:v>25.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.000000</c:v>
+                  <c:v>47.000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68.000000</c:v>
+                  <c:v>62.000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77.000000</c:v>
+                  <c:v>74.000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>97.000000</c:v>
+                  <c:v>99.000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>114.000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>150.000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Лист 1 - Число коллизий в завис'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Число коллизий для int</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="12700" cap="flat">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-              <a:miter lim="400000"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln w="25400" cap="flat">
-                <a:solidFill>
-                  <a:srgbClr val="70BF41"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="400000"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:effectLst>
-                      <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="tl" rotWithShape="1" blurRad="63500" dist="38100" dir="5273901">
-                        <a:srgbClr val="000000">
-                          <a:alpha val="100000"/>
-                        </a:srgbClr>
-                      </a:outerShdw>
-                    </a:effectLst>
-                    <a:latin typeface="Helvetica"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="b"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="25400" cap="flat">
-                <a:solidFill>
-                  <a:srgbClr val="8EF252"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="400000"/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="tl" rotWithShape="1" blurRad="12700" dist="25400" dir="7320000">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="25000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Лист 1 - Число коллизий в завис'!$B$2:$L$2</c:f>
-              <c:numCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>100000.000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000.000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300000.000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400000.000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500000.000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600000.000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700000.000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800000.000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900000.000000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000000.000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1100000.000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Лист 1 - Число коллизий в завис'!$B$4:$L$4</c:f>
-              <c:numCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23.000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>73.000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>89.000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>119.000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>151.000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>178.000000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>228.000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>273.000000</c:v>
+                  <c:v>121.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -619,6 +386,7 @@
         <c:axId val="2094734552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -773,8 +541,8 @@
         <c:crossAx val="2094734552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="50"/>
-        <c:minorUnit val="25"/>
+        <c:majorUnit val="20"/>
+        <c:minorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -838,16 +606,16 @@
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>130234</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>224331</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>184638</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>761978</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>160831</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>816383</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30479</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -855,8 +623,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1374834" y="2765601"/>
-        <a:ext cx="5610145" cy="4051301"/>
+        <a:off x="2673838" y="-20956"/>
+        <a:ext cx="5610146" cy="4051301"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1957,205 +1725,112 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B1" xSplit="1" ySplit="0" activePane="topRight" state="frozen"/>
+      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3516" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.3516" style="1" customWidth="1"/>
-    <col min="13" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1">
+    <row r="1" ht="20.55" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" t="s" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" ht="20.35" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
+    <row r="2" ht="20.55" customHeight="1">
+      <c r="A2" s="3">
         <v>100000</v>
       </c>
-      <c r="C2" s="5">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="20.35" customHeight="1">
+      <c r="A3" s="4">
         <v>200000</v>
       </c>
-      <c r="D2" s="5">
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" ht="20.35" customHeight="1">
+      <c r="A4" s="4">
         <v>300000</v>
       </c>
-      <c r="E2" s="5">
-        <v>400000</v>
-      </c>
-      <c r="F2" s="5">
-        <v>500000</v>
-      </c>
-      <c r="G2" s="5">
-        <v>600000</v>
-      </c>
-      <c r="H2" s="5">
-        <v>700000</v>
-      </c>
-      <c r="I2" s="5">
-        <v>800000</v>
-      </c>
-      <c r="J2" s="5">
-        <v>900000</v>
-      </c>
-      <c r="K2" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="L2" s="5">
-        <v>1100000</v>
-      </c>
-    </row>
-    <row r="3" ht="32.35" customHeight="1">
-      <c r="A3" t="s" s="6">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8">
-        <v>3</v>
-      </c>
-      <c r="D3" s="8">
-        <v>13</v>
-      </c>
-      <c r="E3" s="8">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8">
-        <v>33</v>
-      </c>
-      <c r="G3" s="8">
-        <v>30</v>
-      </c>
-      <c r="H3" s="8">
-        <v>68</v>
-      </c>
-      <c r="I3" s="8">
-        <v>77</v>
-      </c>
-      <c r="J3" s="8">
-        <v>97</v>
-      </c>
-      <c r="K3" s="8">
-        <v>114</v>
-      </c>
-      <c r="L3" s="8">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" ht="32.35" customHeight="1">
-      <c r="A4" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8">
-        <v>28</v>
-      </c>
-      <c r="E4" s="8">
-        <v>23</v>
-      </c>
-      <c r="F4" s="8">
-        <v>73</v>
-      </c>
-      <c r="G4" s="8">
-        <v>89</v>
-      </c>
-      <c r="H4" s="8">
-        <v>119</v>
-      </c>
-      <c r="I4" s="8">
-        <v>151</v>
-      </c>
-      <c r="J4" s="8">
-        <v>178</v>
-      </c>
-      <c r="K4" s="8">
-        <v>228</v>
-      </c>
-      <c r="L4" s="8">
-        <v>273</v>
+      <c r="B4" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="A5" s="4">
+        <v>400000</v>
+      </c>
+      <c r="B5" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="A6" s="4">
+        <v>500000</v>
+      </c>
+      <c r="B6" s="4">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="A7" s="4">
+        <v>600000</v>
+      </c>
+      <c r="B7" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="A8" s="4">
+        <v>700000</v>
+      </c>
+      <c r="B8" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" s="4">
+        <v>800000</v>
+      </c>
+      <c r="B9" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="A10" s="4">
+        <v>900000</v>
+      </c>
+      <c r="B10" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" ht="20.35" customHeight="1">
+      <c r="A11" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="B11" s="4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" ht="20.35" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
